--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>MSCI Emerging Markets</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>CAC40</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -486,10 +486,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01793720116989024</v>
+        <v>0.01590287674137506</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1545285514425705</v>
+        <v>0.153332580076244</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -509,10 +509,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02298608383087354</v>
+        <v>0.01891743497384316</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1503056302939576</v>
+        <v>0.1478718864677222</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -532,10 +532,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02803496649185682</v>
+        <v>0.02193199320631125</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1464442864901011</v>
+        <v>0.1427355781446103</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.03308384915284011</v>
+        <v>0.02494655143877935</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1429738187694936</v>
+        <v>0.1379598908925977</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -578,10 +578,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0381327318138234</v>
+        <v>0.02796110967124746</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1399233144328544</v>
+        <v>0.133583507544857</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -601,10 +601,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.04318161447480668</v>
+        <v>0.03097566790371555</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1373207640913242</v>
+        <v>0.1296468713349626</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.04823049713578997</v>
+        <v>0.03399022613618365</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1351920405933022</v>
+        <v>0.1261911437937302</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.05327937979677326</v>
+        <v>0.03700478436865175</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1335598019216234</v>
+        <v>0.1232567810023592</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -670,10 +670,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.05832826245775655</v>
+        <v>0.04001934260111986</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1324424055931925</v>
+        <v>0.120881756771753</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -693,10 +693,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.06337714511873983</v>
+        <v>0.04303390083358795</v>
       </c>
       <c r="B12" t="n">
-        <v>0.131852941452538</v>
+        <v>0.1190995379649101</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -716,10 +716,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.06842602777972312</v>
+        <v>0.04604845906605604</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1317984931646313</v>
+        <v>0.1179370023900597</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -739,10 +739,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.07347491044070641</v>
+        <v>0.04906301729852414</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1322797213924136</v>
+        <v>0.1174125584770169</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.07852379310168968</v>
+        <v>0.05207757553099226</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1332908243025303</v>
+        <v>0.1175347480941401</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -785,10 +785,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.08357267576267297</v>
+        <v>0.05509213376346035</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1348198807863577</v>
+        <v>0.11830156760185</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -808,10 +808,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.08862155842365625</v>
+        <v>0.05810669199592844</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1368495302427219</v>
+        <v>0.1197006288647863</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -831,10 +831,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.09367044108463954</v>
+        <v>0.06112125022839655</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1393579020381186</v>
+        <v>0.1217101309269841</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -854,10 +854,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.09871932374562285</v>
+        <v>0.06413580846086464</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1423196861073138</v>
+        <v>0.1243004712620591</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -877,10 +877,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1037682064066061</v>
+        <v>0.06715036669333273</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1457072356038266</v>
+        <v>0.1274362354581477</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -900,10 +900,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1088170890675894</v>
+        <v>0.07016492492580084</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1494916092004497</v>
+        <v>0.1310782851031665</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -923,10 +923,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1138659717285727</v>
+        <v>0.07317948315826894</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1536434873197598</v>
+        <v>0.1351857067500024</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.01590287674137506</v>
+        <v>0.01264495772866627</v>
       </c>
       <c r="B23" t="n">
-        <v>0.153332580076244</v>
+        <v>0.1581770716383002</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -969,10 +969,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.02095175940235835</v>
+        <v>0.01565951596113437</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1490140275684867</v>
+        <v>0.1524461945994353</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -992,10 +992,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.02600064206334163</v>
+        <v>0.01867407419360247</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1450548791731318</v>
+        <v>0.1470096400570313</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.03104952472432491</v>
+        <v>0.02168863242607057</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1414853094568064</v>
+        <v>0.1419012405076678</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.03609840738530821</v>
+        <v>0.02470319065853866</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1383354794427335</v>
+        <v>0.1371576669807421</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.04114729004629149</v>
+        <v>0.02771774889100677</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1356346350075078</v>
+        <v>0.1328180143341008</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.04619617270727477</v>
+        <v>0.03073230712347486</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1334100476538219</v>
+        <v>0.1289230779099488</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.05124505536825807</v>
+        <v>0.03374686535594296</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1316858560240106</v>
+        <v>0.1255142656034132</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.05629393802924136</v>
+        <v>0.03676142358841106</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1304818983574508</v>
+        <v>0.1226321225789624</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.06134282069022465</v>
+        <v>0.03977598182087915</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1298126503140508</v>
+        <v>0.1203145039990908</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.06639170335120793</v>
+        <v>0.04279054005334725</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1296863902827055</v>
+        <v>0.1185945109309065</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.07144058601219122</v>
+        <v>0.04580509828581536</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1301046991002424</v>
+        <v>0.1174983912204872</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.07648946867317451</v>
+        <v>0.04881965651828346</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1310623626056592</v>
+        <v>0.1170436739936529</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.08153835133415778</v>
+        <v>0.05183421475075156</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1325476907229855</v>
+        <v>0.1172378226961351</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.08658723399514107</v>
+        <v>0.05484877298321966</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1345432086752111</v>
+        <v>0.1180776366853453</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.09163611665612437</v>
+        <v>0.05786333121568774</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1370266286006221</v>
+        <v>0.1195495096850275</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.09668499931710764</v>
+        <v>0.06087788944815586</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1399719834505838</v>
+        <v>0.1216304978725839</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1017338819780909</v>
+        <v>0.06389244768062395</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1433508026379149</v>
+        <v>0.1242900097578357</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1067827646390743</v>
+        <v>0.06690700591309205</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1471332265098017</v>
+        <v>0.1274918460315844</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1118316473000575</v>
+        <v>0.06992156414556015</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1512889861485</v>
+        <v>0.1311963065392758</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.01891743497384316</v>
+        <v>0.01240159694842558</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1478718864677222</v>
+        <v>0.1574222284485897</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.02396631763482644</v>
+        <v>0.01541615518089367</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1438173264231133</v>
+        <v>0.151718132049748</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.02901520029580974</v>
+        <v>0.01843071341336178</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1401505947610211</v>
+        <v>0.1463118619308689</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.03406408295679302</v>
+        <v>0.02144527164582987</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1369028571822</v>
+        <v>0.1412376226674698</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0391129656177763</v>
+        <v>0.02445982987829797</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1341045586765714</v>
+        <v>0.1365324391414275</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.04416184827875959</v>
+        <v>0.02747438811076608</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1317843324201795</v>
+        <v>0.1322357122154403</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.04921073093974288</v>
+        <v>0.03048894634323417</v>
       </c>
       <c r="B49" t="n">
-        <v>0.129967785029341</v>
+        <v>0.1283884574189204</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.05425961360072618</v>
+        <v>0.03350350457570227</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1286762498670205</v>
+        <v>0.1250321725707556</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.05930849626170946</v>
+        <v>0.03651806280817037</v>
       </c>
       <c r="B51" t="n">
-        <v>0.127925629467488</v>
+        <v>0.1222073161606316</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.06435737892269273</v>
+        <v>0.03953262104063848</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1277254607737723</v>
+        <v>0.119951439485627</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.06940626158367602</v>
+        <v>0.04254717927310658</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1280783246513557</v>
+        <v>0.1182970976492304</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1659,10 +1659,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.07445514424465932</v>
+        <v>0.04556173750557468</v>
       </c>
       <c r="B54" t="n">
-        <v>0.12897968220433</v>
+        <v>0.1172697512398537</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.07950402690564261</v>
+        <v>0.04857629573804278</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1304181615342285</v>
+        <v>0.1168859339935771</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.08455290956662588</v>
+        <v>0.05159085397051087</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1323762537421743</v>
+        <v>0.1171519711371202</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.08960179222760917</v>
+        <v>0.05460541220297897</v>
       </c>
       <c r="B57" t="n">
-        <v>0.134831322444242</v>
+        <v>0.1180634697234606</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.09465067488859247</v>
+        <v>0.05761997043544706</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1377567992141225</v>
+        <v>0.1196056737410079</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.09969955754957577</v>
+        <v>0.06063452866791517</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1411234325255136</v>
+        <v>0.121754619070516</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.104748440210559</v>
+        <v>0.06364908690038328</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1449004760042306</v>
+        <v>0.1244788861817158</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1097973228715423</v>
+        <v>0.06666364513285138</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1490567339811531</v>
+        <v>0.1277416717878029</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.02193199320631125</v>
+        <v>0.01215823616818488</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1427355781446103</v>
+        <v>0.1568219284321449</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.02698087586729455</v>
+        <v>0.01517279440065298</v>
       </c>
       <c r="B63" t="n">
-        <v>0.138974105907795</v>
+        <v>0.1511506802739751</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.03202975852827784</v>
+        <v>0.01818735263312108</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1356303661348451</v>
+        <v>0.145780913783191</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03707864118926112</v>
+        <v>0.02120191086558918</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1327359317716175</v>
+        <v>0.1407471394583456</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.04212752385024442</v>
+        <v>0.02421646909805728</v>
       </c>
       <c r="B66" t="n">
-        <v>0.130320743587094</v>
+        <v>0.1360866469350314</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.0471764065112277</v>
+        <v>0.02723102733052538</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1284118456191365</v>
+        <v>0.1318390285476985</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.05222528917221097</v>
+        <v>0.03024558556299348</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1270320638340536</v>
+        <v>0.1280453794123393</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.05727417183319427</v>
+        <v>0.03326014379546159</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1261987545460391</v>
+        <v>0.1247471229943483</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.06232305449417754</v>
+        <v>0.03627470202792968</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1259227672679172</v>
+        <v>0.1219844496972966</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.06737193715516084</v>
+        <v>0.03928926026039778</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1262077582569903</v>
+        <v>0.1197944197640508</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.07242081981614414</v>
+        <v>0.04230381849286589</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1270499525088696</v>
+        <v>0.1182088651976957</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.07746970247712742</v>
+        <v>0.04531837672533398</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1284383894369724</v>
+        <v>0.1172523107751675</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.08251858513811071</v>
+        <v>0.04833293495780209</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1303556158752933</v>
+        <v>0.1169401929149</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.08756746779909398</v>
+        <v>0.05134749319027017</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1327787278132189</v>
+        <v>0.1172776569594553</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.09261635046007727</v>
+        <v>0.05436205142273827</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1356806242231108</v>
+        <v>0.1182591421028133</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.09766523312106058</v>
+        <v>0.05737660965520638</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1390313284114604</v>
+        <v>0.1198688296679132</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1027141157820438</v>
+        <v>0.06039116788767447</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1427992508052615</v>
+        <v>0.1220818730487253</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.1077629984430271</v>
+        <v>0.06340572612014256</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1469523019269819</v>
+        <v>0.124866195963051</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.02494655143877935</v>
+        <v>0.0119148753879442</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1379598908925977</v>
+        <v>0.1563779513692336</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.02999543409976264</v>
+        <v>0.0149294336204123</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1345225505717082</v>
+        <v>0.1507456530441621</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.03504431676074594</v>
+        <v>0.01794399185288039</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1315337940984916</v>
+        <v>0.1454186229994339</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2326,10 +2326,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.04009319942172921</v>
+        <v>0.02095855008534849</v>
       </c>
       <c r="B83" t="n">
-        <v>0.129024798500045</v>
+        <v>0.1404316050056403</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.0451420820827125</v>
+        <v>0.0239731083178166</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1270239958685614</v>
+        <v>0.1358220571922578</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2372,10 +2372,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.0501909647436958</v>
+        <v>0.02698766655028469</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1255556836039756</v>
+        <v>0.1316296415002403</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.05523984740467907</v>
+        <v>0.03000222478275279</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1246386822158884</v>
+        <v>0.1278953853315072</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2418,10 +2418,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.06028873006566237</v>
+        <v>0.03301678301522089</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1242851953539562</v>
+        <v>0.1246604685647207</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.06533761272664565</v>
+        <v>0.03603134124768899</v>
       </c>
       <c r="B88" t="n">
-        <v>0.124500022988894</v>
+        <v>0.1219646302110772</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.07038649538762894</v>
+        <v>0.03904589948015709</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1252802415574997</v>
+        <v>0.1198442547156182</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.07543537804861222</v>
+        <v>0.04206045771262519</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1266153994804031</v>
+        <v>0.1183302815015126</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.08048426070959552</v>
+        <v>0.04507501594509329</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1284881983174521</v>
+        <v>0.1174461639142827</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.08553314337057881</v>
+        <v>0.04808957417756139</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1308755595539289</v>
+        <v>0.1172061563323445</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.09058202603156211</v>
+        <v>0.05110413241002949</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1337499320771765</v>
+        <v>0.1176142020008276</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.09563090869254537</v>
+        <v>0.05411869064249759</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1370806836616703</v>
+        <v>0.1186636157735347</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.1006797913535287</v>
+        <v>0.05713324887496569</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1408354379978944</v>
+        <v>0.1203376195155727</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.1057286740145119</v>
+        <v>0.06014780710743379</v>
       </c>
       <c r="B96" t="n">
-        <v>0.144981256096686</v>
+        <v>0.1226106333030235</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.02796110967124746</v>
+        <v>0.0116715146077035</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133583507544857</v>
+        <v>0.1560916311706197</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.03300999233223074</v>
+        <v>0.01468607284017161</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1305027466294586</v>
+        <v>0.1505043616841092</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2694,10 +2694,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.03805887499321402</v>
+        <v>0.0177006310726397</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1279015931413081</v>
+        <v>0.1452262518157293</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.04310775765419732</v>
+        <v>0.02071518930510781</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1258097986594964</v>
+        <v>0.1402921997582836</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.0481566403151806</v>
+        <v>0.0237297475375759</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1242530909466947</v>
+        <v>0.1357397295402447</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.0532055229761639</v>
+        <v>0.026744305770044</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1232517466053864</v>
+        <v>0.1316084450343802</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.05825440563714719</v>
+        <v>0.0297588640025121</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1228193499948418</v>
+        <v>0.1279391542849345</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.06330328829813045</v>
+        <v>0.03277342223498021</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122961903390598</v>
+        <v>0.1247726226380977</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.06835217095911375</v>
+        <v>0.03578798046744829</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1236774187074112</v>
+        <v>0.1221479565400179</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.07340105362009704</v>
+        <v>0.03880253869991641</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1249560537598084</v>
+        <v>0.1201006868418459</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.07844993628108031</v>
+        <v>0.04181709693238449</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1267807718257236</v>
+        <v>0.1186607030104417</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.08349881894206362</v>
+        <v>0.04483165516485259</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1291284248282867</v>
+        <v>0.1178502679846314</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.08854770160304691</v>
+        <v>0.0478462133973207</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1319711080234952</v>
+        <v>0.117682388891604</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.0935965842640302</v>
+        <v>0.0508607716297888</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1352776177631387</v>
+        <v>0.118159804555052</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.09864546692501347</v>
+        <v>0.0538753298622569</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1390148612300028</v>
+        <v>0.1192747665510586</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1036943495859968</v>
+        <v>0.056889888094725</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1431491064531324</v>
+        <v>0.1210096534380587</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.03097566790371555</v>
+        <v>0.01142815382746281</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1296468713349626</v>
+        <v>0.1559638361235577</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3039,10 +3039,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.03602455056469885</v>
+        <v>0.01444271205993092</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1269557123937935</v>
+        <v>0.150427594110842</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.04107343322568214</v>
+        <v>0.01745727029239901</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1247743236098402</v>
+        <v>0.1452044755771823</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.04612231588666543</v>
+        <v>0.02047182852486711</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1231298014924775</v>
+        <v>0.1403294486249445</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3108,10 +3108,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.05117119854764873</v>
+        <v>0.02348638675733521</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1220438505589976</v>
+        <v>0.135839995366554</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.05622008120863198</v>
+        <v>0.02650094498980331</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1215314451628187</v>
+        <v>0.131775529963108</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.06126896386961527</v>
+        <v>0.02951550322227141</v>
       </c>
       <c r="B119" t="n">
-        <v>0.121599836051969</v>
+        <v>0.1281764877775898</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.06631784653059856</v>
+        <v>0.03253006145473952</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1222480484620287</v>
+        <v>0.1250830504385281</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.07136672919158184</v>
+        <v>0.03554461968720761</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1234669503879057</v>
+        <v>0.1225335168885811</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.07641561185256515</v>
+        <v>0.03855917791967571</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1252398801652686</v>
+        <v>0.1205623978744164</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.08146449451354844</v>
+        <v>0.0415737361521438</v>
       </c>
       <c r="B123" t="n">
-        <v>0.127543735988634</v>
+        <v>0.1191983916311041</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.08651337717453172</v>
+        <v>0.04458829438461191</v>
       </c>
       <c r="B124" t="n">
-        <v>0.130350369606197</v>
+        <v>0.1184624713557974</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.09156225983551501</v>
+        <v>0.04760285261708001</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1336281047662212</v>
+        <v>0.1183663526432755</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3315,10 +3315,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.0966111424964983</v>
+        <v>0.05061741084954811</v>
       </c>
       <c r="B126" t="n">
-        <v>0.137343216690008</v>
+        <v>0.1189115869984481</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1016600251574816</v>
+        <v>0.0536319690820162</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1414612498831783</v>
+        <v>0.1200894390567913</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3361,10 +3361,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.03399022613618365</v>
+        <v>0.01118479304722212</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1261911437937302</v>
+        <v>0.155994955832078</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.03903910879716694</v>
+        <v>0.01419935127969023</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1239220509314893</v>
+        <v>0.1505156020611021</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.04408799145815022</v>
+        <v>0.01721390951215833</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1221907602994991</v>
+        <v>0.1453533709572923</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.04913687411913351</v>
+        <v>0.02022846774462643</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1210203551411038</v>
+        <v>0.1405432111471362</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.05418575678011679</v>
+        <v>0.02324302597709452</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1204271899314868</v>
+        <v>0.1361224511846479</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.05923463944110008</v>
+        <v>0.02625758420956262</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1204197950982983</v>
+        <v>0.132130182015894</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.06428352210208338</v>
+        <v>0.02927214244203072</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1209982780399958</v>
+        <v>0.1286063141865818</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.06933240476306665</v>
+        <v>0.03228670067449881</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1221543154627719</v>
+        <v>0.1255902817252608</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.07438128742404994</v>
+        <v>0.03530125890696692</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1238717382784261</v>
+        <v>0.1231194113252295</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.07943017008503325</v>
+        <v>0.03831581713943501</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1261276161768931</v>
+        <v>0.1212270423312382</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.08447905274601654</v>
+        <v>0.04133037537190312</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1288936803773508</v>
+        <v>0.1199405598859563</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3614,10 +3614,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.08952793540699983</v>
+        <v>0.04434493360437122</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1321378953229463</v>
+        <v>0.1192795698567093</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.09457681806798311</v>
+        <v>0.04735949183683932</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1358260033275787</v>
+        <v>0.1192544734201388</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.09962570072896636</v>
+        <v>0.05037405006930742</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1399229082027499</v>
+        <v>0.1198656699906011</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.03700478436865175</v>
+        <v>0.01094143226698143</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1232567810023592</v>
+        <v>0.1561848953053167</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.04205366702963503</v>
+        <v>0.01395599049944954</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1214402415626128</v>
+        <v>0.150768096981625</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.04710254969061833</v>
+        <v>0.01697054873191763</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1201859714730227</v>
+        <v>0.1456724146139438</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.05215143235160161</v>
+        <v>0.01998510696438573</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1195116750257018</v>
+        <v>0.1409326841350893</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.05720031501258491</v>
+        <v>0.02299966519685383</v>
       </c>
       <c r="B146" t="n">
-        <v>0.119427176372842</v>
+        <v>0.1365859667083448</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3798,10 +3798,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.06224919767356818</v>
+        <v>0.02601422342932192</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1199337221374253</v>
+        <v>0.1326708970040278</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3821,10 +3821,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.06729808033455147</v>
+        <v>0.02902878166179003</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1210238910938275</v>
+        <v>0.1292267127498093</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.07234696299553477</v>
+        <v>0.03204333989425814</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1226821257789835</v>
+        <v>0.1262919452319038</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3867,10 +3867,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.07739584565651807</v>
+        <v>0.03505789812672624</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1248857998982123</v>
+        <v>0.1239027979460623</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.08244472831750133</v>
+        <v>0.03807245635919434</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1276066585534961</v>
+        <v>0.1220913060513948</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.08749361097848461</v>
+        <v>0.04108701459166243</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1308124338836604</v>
+        <v>0.1208834416033729</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3936,10 +3936,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.09254249363946791</v>
+        <v>0.04410157282413053</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1344684486054322</v>
+        <v>0.1202973884192207</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.09759137630045121</v>
+        <v>0.04711613105659864</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1385390621541186</v>
+        <v>0.1203422312954256</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.04001934260111986</v>
+        <v>0.01069807148674074</v>
       </c>
       <c r="B155" t="n">
-        <v>0.120881756771753</v>
+        <v>0.1565330764018209</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.04506822526210313</v>
+        <v>0.01371262971920884</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1195446594397798</v>
+        <v>0.1511842547387462</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.05011710792308643</v>
+        <v>0.01672718795167694</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1187892644195042</v>
+        <v>0.1461604923365751</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.05516599058406971</v>
+        <v>0.01974174618414504</v>
       </c>
       <c r="B158" t="n">
-        <v>0.118626684782502</v>
+        <v>0.1414964166517937</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.06021487324505301</v>
+        <v>0.02275630441661314</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1190593490829407</v>
+        <v>0.1372287072612509</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.06526375590603629</v>
+        <v>0.02577086264908124</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1200808233067471</v>
+        <v>0.1333954123422475</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.07031263856701958</v>
+        <v>0.02878542088154934</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1216762791525332</v>
+        <v>0.1300349558287712</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.07536152122800288</v>
+        <v>0.03179997911401744</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1238235314921617</v>
+        <v>0.1271848230210303</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.08041040388898614</v>
+        <v>0.03481453734648554</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1264944830985993</v>
+        <v>0.1248799601315567</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.08545928654996945</v>
+        <v>0.03782909557895364</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1296567731280535</v>
+        <v>0.1231509863707785</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.09050816921095274</v>
+        <v>0.04084365381142174</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1332754315017718</v>
+        <v>0.1220223840604675</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4235,10 +4235,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.09555705187193601</v>
+        <v>0.04385821204388985</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1373143828096448</v>
+        <v>0.1215108832392099</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.04303390083358795</v>
+        <v>0.01045471070650005</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1190995379649101</v>
+        <v>0.1570384465788829</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4281,10 +4281,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.04808278349457124</v>
+        <v>0.01346926893896815</v>
       </c>
       <c r="B168" t="n">
-        <v>0.118263496889058</v>
+        <v>0.1517627289691521</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4304,10 +4304,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.05313166615555451</v>
+        <v>0.01648382717143626</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1180222297273172</v>
+        <v>0.1468159183143575</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4327,10 +4327,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.05818054881653781</v>
+        <v>0.01949838540390434</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1183793731339768</v>
+        <v>0.1422323366990782</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.06322943147752109</v>
+        <v>0.02251294363637245</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1193295542511796</v>
+        <v>0.1380481694965199</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4373,10 +4373,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.06827831413850437</v>
+        <v>0.02552750186884055</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1208587866577494</v>
+        <v>0.1343007534076704</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.07332719679948767</v>
+        <v>0.02854206010130865</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1229454650135084</v>
+        <v>0.1310275673149128</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.07837607946047097</v>
+        <v>0.03155661833377676</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1255618002530964</v>
+        <v>0.1282649219121432</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4442,10 +4442,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.08342496212145424</v>
+        <v>0.03457117656624485</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1286754881809873</v>
+        <v>0.1260463912845602</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.08847384478243753</v>
+        <v>0.03758573479871295</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1322514048879579</v>
+        <v>0.1244010895638008</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.09352272744342084</v>
+        <v>0.04060029303118104</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1362531621338309</v>
+        <v>0.1233519565289875</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.04604845906605604</v>
+        <v>0.01021134992625936</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1179370023900597</v>
+        <v>0.157699494640293</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.05109734172703933</v>
+        <v>0.01322590815872746</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1176168336521247</v>
+        <v>0.152501672571888</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.05614622438802264</v>
+        <v>0.01624046639119556</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1178971579146693</v>
+        <v>0.1476364637571321</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.06119510704900591</v>
+        <v>0.01925502462366366</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1187737234861634</v>
+        <v>0.1431377884776298</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4603,10 +4603,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.0662439897099892</v>
+        <v>0.02226958285613176</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1202334903327064</v>
+        <v>0.1390412288347974</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4626,10 +4626,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.0712928723709725</v>
+        <v>0.02528414108859986</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1222555694633526</v>
+        <v>0.1353832925718028</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.07634175503195577</v>
+        <v>0.02829869932106796</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1248126339456008</v>
+        <v>0.1322003943463949</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.08139063769293907</v>
+        <v>0.03131325755353605</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1278725935471502</v>
+        <v>0.1295275584158459</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.08643952035392234</v>
+        <v>0.03432781578600415</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1314003197443487</v>
+        <v>0.1273968927370935</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.09148840301490563</v>
+        <v>0.03734237401847225</v>
       </c>
       <c r="B187" t="n">
-        <v>0.135359244744368</v>
+        <v>0.1258359405536856</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.04906301729852414</v>
+        <v>0.009967989146018664</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1174125584770169</v>
+        <v>0.1585142729393909</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.05411189995950742</v>
+        <v>0.01298254737848677</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1176151358726547</v>
+        <v>0.1533987665533434</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.05916078262049072</v>
+        <v>0.01599710561095487</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1184160831347389</v>
+        <v>0.148619393757136</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4810,10 +4810,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.064209665281474</v>
+        <v>0.01901166384342296</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1198033996346097</v>
+        <v>0.1442095786952386</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.06925854794245728</v>
+        <v>0.02202622207589107</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1217570435065375</v>
+        <v>0.1402041965857152</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4856,10 +4856,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.0743074306034406</v>
+        <v>0.02504078030835916</v>
       </c>
       <c r="B193" t="n">
-        <v>0.124250303755371</v>
+        <v>0.1366388182732184</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4879,10 +4879,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.07935631326442386</v>
+        <v>0.02805533854082727</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1272514659387362</v>
+        <v>0.1335486890389623</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4902,10 +4902,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.08440519592540717</v>
+        <v>0.03106989677329538</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1307255539067207</v>
+        <v>0.1309674531897805</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.08945407858639044</v>
+        <v>0.03408445500576347</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1346359631201368</v>
+        <v>0.1289256801885386</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4948,10 +4948,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.05207757553099226</v>
+        <v>0.009724628365777983</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1175347480941401</v>
+        <v>0.159480425291032</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.05712645819197553</v>
+        <v>0.01273918659824609</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1182584313290285</v>
+        <v>0.1544512551996769</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4994,10 +4994,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.06217534085295882</v>
+        <v>0.01575374483071419</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1195706210222995</v>
+        <v>0.1497615110119122</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.0672242235139421</v>
+        <v>0.01876830306318228</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1214522437146406</v>
+        <v>0.1454440301093672</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.07227310617492538</v>
+        <v>0.02178286129565038</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1238773540861638</v>
+        <v>0.1415328844276341</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5063,10 +5063,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.07732198883590868</v>
+        <v>0.02479741952811849</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1268147762205311</v>
+        <v>0.1380626112328231</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.08237087149689196</v>
+        <v>0.02781197776058658</v>
       </c>
       <c r="B203" t="n">
-        <v>0.1302298481176425</v>
+        <v>0.1350671967300475</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.08741975415787527</v>
+        <v>0.03082653599305467</v>
       </c>
       <c r="B204" t="n">
-        <v>0.1340860785989035</v>
+        <v>0.1325788309296364</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -5132,10 +5132,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.05509213376346035</v>
+        <v>0.009481267585537294</v>
       </c>
       <c r="B205" t="n">
-        <v>0.11830156760185</v>
+        <v>0.1605952196870068</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5155,10 +5155,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.06014101642444363</v>
+        <v>0.0124958258180054</v>
       </c>
       <c r="B206" t="n">
-        <v>0.1195363072063469</v>
+        <v>0.1556559863777462</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5178,10 +5178,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.06518989908542691</v>
+        <v>0.0155103840504735</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1213426299550634</v>
+        <v>0.1510592048509733</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.07023878174641021</v>
+        <v>0.01852494228294159</v>
       </c>
       <c r="B208" t="n">
-        <v>0.1236954979322167</v>
+        <v>0.1468370403244891</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5224,10 +5224,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.0752876644073935</v>
+        <v>0.02153950051540969</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1265644335245602</v>
+        <v>0.1430226737911546</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -5247,10 +5247,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.08033654706837677</v>
+        <v>0.02455405874787779</v>
       </c>
       <c r="B210" t="n">
-        <v>0.1299152520626154</v>
+        <v>0.1396495248525912</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.08538542972936006</v>
+        <v>0.02756861698034588</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1337117304652034</v>
+        <v>0.1367502472787747</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5293,10 +5293,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.05810669199592844</v>
+        <v>0.009237906805296604</v>
       </c>
       <c r="B212" t="n">
-        <v>0.1197006288647863</v>
+        <v>0.1618555848014899</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.06315557465691174</v>
+        <v>0.0122524650377647</v>
       </c>
       <c r="B213" t="n">
-        <v>0.121428730812464</v>
+        <v>0.1570094556627316</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5339,10 +5339,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.06820445731789503</v>
+        <v>0.0152670232702328</v>
       </c>
       <c r="B214" t="n">
-        <v>0.1237055780602986</v>
+        <v>0.152508503925684</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -5362,10 +5362,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.0732533399788783</v>
+        <v>0.0182815815027009</v>
       </c>
       <c r="B215" t="n">
-        <v>0.1265015441808741</v>
+        <v>0.1483841438222478</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5385,10 +5385,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.07830222263986159</v>
+        <v>0.021296139735169</v>
       </c>
       <c r="B216" t="n">
-        <v>0.1297830827861048</v>
+        <v>0.1446685877173783</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5408,10 +5408,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.08335110530084487</v>
+        <v>0.02431069796763711</v>
       </c>
       <c r="B217" t="n">
-        <v>0.1335143952358339</v>
+        <v>0.1413940669635332</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -5431,10 +5431,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.06112125022839655</v>
+        <v>0.008994546025055917</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1217101309269841</v>
+        <v>0.1632581492188105</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -5454,10 +5454,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.06617013288937984</v>
+        <v>0.01200910425752401</v>
       </c>
       <c r="B219" t="n">
-        <v>0.1239075476272112</v>
+        <v>0.1585078529587423</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5477,10 +5477,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.07121901555036313</v>
+        <v>0.01502366248999211</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1266263874874501</v>
+        <v>0.1541051309298208</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.0762678982113464</v>
+        <v>0.01803822072246021</v>
       </c>
       <c r="B221" t="n">
-        <v>0.1298338974138124</v>
+        <v>0.150080575272992</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.08131678087232971</v>
+        <v>0.02105277895492831</v>
       </c>
       <c r="B222" t="n">
-        <v>0.1334948579069813</v>
+        <v>0.1464653629214612</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.06413580846086464</v>
+        <v>0.008751185244815225</v>
       </c>
       <c r="B223" t="n">
-        <v>0.1243004712620591</v>
+        <v>0.1647992823135929</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.06918469112184793</v>
+        <v>0.01176574347728332</v>
       </c>
       <c r="B224" t="n">
-        <v>0.1269384095430594</v>
+        <v>0.160147110312606</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -5592,10 +5592,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.07423357378283123</v>
+        <v>0.01478030170975143</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1300674814820338</v>
+        <v>0.1558445578066453</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -5615,10 +5615,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.0792824564438145</v>
+        <v>0.01779485994221952</v>
       </c>
       <c r="B226" t="n">
-        <v>0.1336531964497788</v>
+        <v>0.1519213323417344</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -5638,10 +5638,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.06715036669333273</v>
+        <v>0.008507824464574536</v>
       </c>
       <c r="B227" t="n">
-        <v>0.1274362354581477</v>
+        <v>0.1664751357578782</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -5661,10 +5661,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.07219924935431604</v>
+        <v>0.01152238269704263</v>
       </c>
       <c r="B228" t="n">
-        <v>0.1304828534395283</v>
+        <v>0.1619229497111838</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.07724813201529933</v>
+        <v>0.01453694092951073</v>
       </c>
       <c r="B229" t="n">
-        <v>0.1339887802620227</v>
+        <v>0.1577220600512345</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5707,10 +5707,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.07016492492580084</v>
+        <v>0.008264463684333834</v>
       </c>
       <c r="B230" t="n">
-        <v>0.1310782851031665</v>
+        <v>0.1682816847132731</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.07521380758678413</v>
+        <v>0.01127902191680193</v>
       </c>
       <c r="B231" t="n">
-        <v>0.1345002826472473</v>
+        <v>0.1638309297863743</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -5753,10 +5753,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.07317948315826894</v>
+        <v>0.008021102904093151</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1351857067500024</v>
+        <v>0.1702147678789233</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>MSCI Emerging Markets</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>CAC40</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -5822,37 +5822,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04906301729852414</v>
+        <v>0.04857629573804278</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1174125584770169</v>
+        <v>0.1168859339935771</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>60%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>30%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01288831850890696</v>
+        <v>0.008021102904093151</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1590842581282659</v>
+        <v>0.1702147678789233</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5862,16 +5862,16 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1138659717285727</v>
+        <v>0.07317948315826894</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1536434873197598</v>
+        <v>0.1351857067500024</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -6087,9 +6087,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E38B2BF-44FF-493E-B28A-FEC78B9EE09B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E0AEBB-C9ED-4A4F-A9DC-63FD9EA94367}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A860C0F7-564B-4EC7-9C49-6348877B3A79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29610540-4AED-4D96-ADDE-81B6BC78D1CF}"/>
 </file>
--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -437,17 +437,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>return</t>
+          <t>risks</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>returns</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MSCI Emerging Markets</t>
+          <t>Hang Seng</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,16 +457,16 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Hang Seng</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01288831850890696</v>
+        <v>0.01975018620879425</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1590842581282659</v>
+        <v>0.001975851757511559</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -486,10 +486,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01590287674137506</v>
+        <v>0.01959429755726039</v>
       </c>
       <c r="B3" t="n">
-        <v>0.153332580076244</v>
+        <v>0.001963229266967344</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -509,10 +509,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01891743497384316</v>
+        <v>0.01947474804339226</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1478718864677222</v>
+        <v>0.00195060677642313</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -532,10 +532,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02193199320631125</v>
+        <v>0.0193922097517404</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1427355781446103</v>
+        <v>0.001937984285878914</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02494655143877935</v>
+        <v>0.01934715637679387</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1379598908925977</v>
+        <v>0.001925361795334699</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -578,10 +578,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02796110967124746</v>
+        <v>0.01933984989061372</v>
       </c>
       <c r="B7" t="n">
-        <v>0.133583507544857</v>
+        <v>0.001912739304790484</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -601,10 +601,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.03097566790371555</v>
+        <v>0.0193703330076063</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1296468713349626</v>
+        <v>0.001900116814246269</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.03399022613618365</v>
+        <v>0.01943842794493394</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1261911437937302</v>
+        <v>0.001887494323702054</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.03700478436865175</v>
+        <v>0.01954374156158309</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1232567810023592</v>
+        <v>0.001874871833157838</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -670,10 +670,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.04001934260111986</v>
+        <v>0.01968567653377062</v>
       </c>
       <c r="B11" t="n">
-        <v>0.120881756771753</v>
+        <v>0.001862249342613624</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -693,10 +693,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.04303390083358795</v>
+        <v>0.01986344783941799</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1190995379649101</v>
+        <v>0.001849626852069409</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -716,10 +716,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.04604845906605604</v>
+        <v>0.02007610352277171</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1179370023900597</v>
+        <v>0.001837004361525194</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -739,10 +739,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.04906301729852414</v>
+        <v>0.0203225485201918</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1174125584770169</v>
+        <v>0.001824381870980979</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.05207757553099226</v>
+        <v>0.02060157025968622</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1175347480941401</v>
+        <v>0.001811759380436763</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -785,10 +785,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.05509213376346035</v>
+        <v>0.0209118647921404</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11830156760185</v>
+        <v>0.001799136889892548</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -808,10 +808,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.05810669199592844</v>
+        <v>0.02125206234969844</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1197006288647863</v>
+        <v>0.001786514399348333</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -831,10 +831,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.06112125022839655</v>
+        <v>0.0216207514267408</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1217101309269841</v>
+        <v>0.001773891908804118</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -854,10 +854,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.06413580846086464</v>
+        <v>0.02201650070990151</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1243004712620591</v>
+        <v>0.001761269418259903</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -877,10 +877,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.06715036669333273</v>
+        <v>0.02243787841735507</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1274362354581477</v>
+        <v>0.001748646927715688</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -900,10 +900,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.07016492492580084</v>
+        <v>0.02288346882239793</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1310782851031665</v>
+        <v>0.001736024437171474</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -923,10 +923,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.07317948315826894</v>
+        <v>0.02335188591805903</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1351857067500024</v>
+        <v>0.001723401946627258</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.01264495772866627</v>
+        <v>0.01931893915693617</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1581770716383002</v>
+        <v>0.001935161082475433</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -969,10 +969,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.01565951596113437</v>
+        <v>0.01917613482099028</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1524461945994353</v>
+        <v>0.001922538591931218</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -992,10 +992,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.01867407419360247</v>
+        <v>0.01907064645749916</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1470096400570313</v>
+        <v>0.001909916101387002</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.02168863242607057</v>
+        <v>0.01900309551235772</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1419012405076678</v>
+        <v>0.001897293610842788</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.02470319065853866</v>
+        <v>0.01897388718495476</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1371576669807421</v>
+        <v>0.001884671120298572</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.02771774889100677</v>
+        <v>0.01898319846268604</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1328180143341008</v>
+        <v>0.001872048629754357</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.03073230712347486</v>
+        <v>0.01903097280621242</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1289230779099488</v>
+        <v>0.001859426139210143</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.03374686535594296</v>
+        <v>0.01911692185312799</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1255142656034132</v>
+        <v>0.001846803648665927</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.03676142358841106</v>
+        <v>0.01924053402162071</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1226321225789624</v>
+        <v>0.001834181158121713</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.03977598182087915</v>
+        <v>0.01940108942421587</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1203145039990908</v>
+        <v>0.001821558667577497</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.04279054005334725</v>
+        <v>0.01959768010164552</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1185945109309065</v>
+        <v>0.001808936177033282</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.04580509828581536</v>
+        <v>0.01982923430183778</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1174983912204872</v>
+        <v>0.001796313686489067</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.04881965651828346</v>
+        <v>0.02009454338218867</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1170436739936529</v>
+        <v>0.001783691195944852</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.05183421475075156</v>
+        <v>0.02039228990552264</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1172378226961351</v>
+        <v>0.001771068705400637</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.05484877298321966</v>
+        <v>0.02072107561285934</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1180776366853453</v>
+        <v>0.001758446214856422</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.05786333121568774</v>
+        <v>0.02107944815756623</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1195495096850275</v>
+        <v>0.001745823724312207</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.06087788944815586</v>
+        <v>0.02146592573852678</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1216304978725839</v>
+        <v>0.001733201233767992</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.06389244768062395</v>
+        <v>0.02187901903895843</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1242900097578357</v>
+        <v>0.001720578743223777</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.06690700591309205</v>
+        <v>0.02231725013331616</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1274918460315844</v>
+        <v>0.001707956252679562</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.06992156414556015</v>
+        <v>0.02277916824709871</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1311963065392758</v>
+        <v>0.001695333762135346</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.01240159694842558</v>
+        <v>0.01893970545182052</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1574222284485897</v>
+        <v>0.001894470407439306</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.01541615518089367</v>
+        <v>0.01881093496262464</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151718132049748</v>
+        <v>0.001881847916895091</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.01843071341336178</v>
+        <v>0.01872038404641324</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1463118619308689</v>
+        <v>0.001869225426350876</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.02144527164582987</v>
+        <v>0.01866860885639442</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1412376226674698</v>
+        <v>0.001856602935806661</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.02445982987829797</v>
+        <v>0.01865593223432236</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1365324391414275</v>
+        <v>0.001843980445262446</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.02747438811076608</v>
+        <v>0.01868243376921067</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1322357122154403</v>
+        <v>0.001831357954718231</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.03048894634323417</v>
+        <v>0.01874794731859981</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1283884574189204</v>
+        <v>0.001818735464174016</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.03350350457570227</v>
+        <v>0.01885206617036392</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1250321725707556</v>
+        <v>0.001806112973629801</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.03651806280817037</v>
+        <v>0.01899415547565358</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1222073161606316</v>
+        <v>0.001793490483085586</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.03953262104063848</v>
+        <v>0.01917337108297749</v>
       </c>
       <c r="B52" t="n">
-        <v>0.119951439485627</v>
+        <v>0.001780867992541371</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.04254717927310658</v>
+        <v>0.0193886835099382</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1182970976492304</v>
+        <v>0.001768245501997156</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1659,10 +1659,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.04556173750557468</v>
+        <v>0.01963890554288289</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1172697512398537</v>
+        <v>0.00175562301145294</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.04857629573804278</v>
+        <v>0.01992272186993381</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1168859339935771</v>
+        <v>0.001743000520908726</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.05159085397051087</v>
+        <v>0.02023871921841737</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1171519711371202</v>
+        <v>0.00173037803036451</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.05460541220297897</v>
+        <v>0.02058541565302653</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1180634697234606</v>
+        <v>0.001717755539820296</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.05761997043544706</v>
+        <v>0.0209612879548118</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1196056737410079</v>
+        <v>0.00170513304927608</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.06063452866791517</v>
+        <v>0.02136479630026792</v>
       </c>
       <c r="B59" t="n">
-        <v>0.121754619070516</v>
+        <v>0.001692510558731865</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.06364908690038328</v>
+        <v>0.02179440575675512</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1244788861817158</v>
+        <v>0.00167988806818765</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.06666364513285138</v>
+        <v>0.02224860437733017</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1277416717878029</v>
+        <v>0.001667265577643435</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.01215823616818488</v>
+        <v>0.01861566417399609</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1568219284321449</v>
+        <v>0.00185377973240318</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.01517279440065298</v>
+        <v>0.01850183448332503</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1511506802739751</v>
+        <v>0.001841157241858965</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.01818735263312108</v>
+        <v>0.01842703120332856</v>
       </c>
       <c r="B64" t="n">
-        <v>0.145780913783191</v>
+        <v>0.001828534751314749</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02120191086558918</v>
+        <v>0.0183917305275841</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1407471394583456</v>
+        <v>0.001815912260770534</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.02421646909805728</v>
+        <v>0.01839615986397239</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1360866469350314</v>
+        <v>0.00180328977022632</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.02723102733052538</v>
+        <v>0.0184402905832073</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1318390285476985</v>
+        <v>0.001790667279682104</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.03024558556299348</v>
+        <v>0.01852383893679046</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1280453794123393</v>
+        <v>0.001778044789137889</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.03326014379546159</v>
+        <v>0.01864627507653794</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1247471229943483</v>
+        <v>0.001765422298593674</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.03627470202792968</v>
+        <v>0.01880683951689972</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1219844496972966</v>
+        <v>0.001752799808049459</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.03928926026039778</v>
+        <v>0.01900456587532736</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1197944197640508</v>
+        <v>0.001740177317505244</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.04230381849286589</v>
+        <v>0.01923830836418912</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1182088651976957</v>
+        <v>0.001727554826961029</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.04531837672533398</v>
+        <v>0.01950677232225608</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1172523107751675</v>
+        <v>0.001714932336416814</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.04833293495780209</v>
+        <v>0.01980854606627599</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1169401929149</v>
+        <v>0.001702309845872599</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.05134749319027017</v>
+        <v>0.0201421324888393</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1172776569594553</v>
+        <v>0.001689687355328384</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.05436205142273827</v>
+        <v>0.02050597908530262</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1182591421028133</v>
+        <v>0.001677064864784169</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.05737660965520638</v>
+        <v>0.02089850541083062</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1198688296679132</v>
+        <v>0.001664442374239954</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.06039116788767447</v>
+        <v>0.02131812730229605</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1220818730487253</v>
+        <v>0.001651819883695739</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.06340572612014256</v>
+        <v>0.02176327751185513</v>
       </c>
       <c r="B79" t="n">
-        <v>0.124866195963051</v>
+        <v>0.001639197393151524</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.0119148753879442</v>
+        <v>0.01834973951480636</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1563779513692336</v>
+        <v>0.001813089057367053</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0149294336204123</v>
+        <v>0.01825168381036609</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1507456530441621</v>
+        <v>0.001800466566822838</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.01794399185288039</v>
+        <v>0.01819334099819625</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1454186229994339</v>
+        <v>0.001787844076278623</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2326,10 +2326,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.02095855008534849</v>
+        <v>0.01817509352246785</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1404316050056403</v>
+        <v>0.001775221585734408</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.0239731083178166</v>
+        <v>0.01819706200283421</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1358220571922578</v>
+        <v>0.001762599095190193</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2372,10 +2372,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.02698766655028469</v>
+        <v>0.01825910128210771</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1316296415002403</v>
+        <v>0.001749976604645978</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.03000222478275279</v>
+        <v>0.01836080517941078</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1278953853315072</v>
+        <v>0.001737354114101763</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2418,10 +2418,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.03301678301522089</v>
+        <v>0.01850151959037482</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1246604685647207</v>
+        <v>0.001724731623557547</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.03603134124768899</v>
+        <v>0.01868036296704387</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1219646302110772</v>
+        <v>0.001712109133013333</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.03904589948015709</v>
+        <v>0.01889625272689588</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1198442547156182</v>
+        <v>0.001699486642469117</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.04206045771262519</v>
+        <v>0.01914793583568922</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1183302815015126</v>
+        <v>0.001686864151924902</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.04507501594509329</v>
+        <v>0.01943402170234865</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1174461639142827</v>
+        <v>0.001674241661380687</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.04808957417756139</v>
+        <v>0.01975301560263092</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1172061563323445</v>
+        <v>0.001661619170836472</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.05110413241002949</v>
+        <v>0.02010335107336431</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1176142020008276</v>
+        <v>0.001648996680292258</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.05411869064249759</v>
+        <v>0.02048342003843183</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1186636157735347</v>
+        <v>0.001636374189748042</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.05713324887496569</v>
+        <v>0.02089159978731783</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1203376195155727</v>
+        <v>0.001623751699203827</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.06014780710743379</v>
+        <v>0.02132627628037351</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1226106333030235</v>
+        <v>0.001611129208659612</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.0116715146077035</v>
+        <v>0.01814448691664919</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1560916311706197</v>
+        <v>0.001772398382330927</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.01468607284017161</v>
+        <v>0.01806293226925703</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1505043616841092</v>
+        <v>0.001759775891786711</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2694,10 +2694,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.0177006310726397</v>
+        <v>0.01802163455322008</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1452262518157293</v>
+        <v>0.001747153401242497</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.02071518930510781</v>
+        <v>0.01802087053631427</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1402921997582836</v>
+        <v>0.001734530910698281</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.0237297475375759</v>
+        <v>0.01806064536261424</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1357397295402447</v>
+        <v>0.001721908420154066</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.026744305770044</v>
+        <v>0.01814069238073271</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1316084450343802</v>
+        <v>0.001709285929609851</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.0297588640025121</v>
+        <v>0.01826048198436624</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1279391542849345</v>
+        <v>0.001696663439065636</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.03277342223498021</v>
+        <v>0.01841923879157576</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1247726226380977</v>
+        <v>0.001684040948521421</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.03578798046744829</v>
+        <v>0.01861596589305938</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1221479565400179</v>
+        <v>0.001671418457977206</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.03880253869991641</v>
+        <v>0.01884947446781331</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1201006868418459</v>
+        <v>0.001658795967432991</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.04181709693238449</v>
+        <v>0.01911841683834405</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1186607030104417</v>
+        <v>0.001646173476888776</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.04483165516485259</v>
+        <v>0.01942132102117011</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1178502679846314</v>
+        <v>0.001633550986344561</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.0478462133973207</v>
+        <v>0.0197566249931699</v>
       </c>
       <c r="B109" t="n">
-        <v>0.117682388891604</v>
+        <v>0.001620928495800346</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.0508607716297888</v>
+        <v>0.02012270918998938</v>
       </c>
       <c r="B110" t="n">
-        <v>0.118159804555052</v>
+        <v>0.001608306005256131</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.0538753298622569</v>
+        <v>0.02051792612034061</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1192747665510586</v>
+        <v>0.001595683514711916</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.056889888094725</v>
+        <v>0.020940626364208</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1210096534380587</v>
+        <v>0.001583061024167701</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.01142815382746281</v>
+        <v>0.01800198178703178</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1559638361235577</v>
+        <v>0.0017317077072948</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3039,10 +3039,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.01444271205993092</v>
+        <v>0.01793751822295708</v>
       </c>
       <c r="B114" t="n">
-        <v>0.150427594110842</v>
+        <v>0.001719085216750585</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.01745727029239901</v>
+        <v>0.01791369433835316</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1452044755771823</v>
+        <v>0.00170646272620637</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.02047182852486711</v>
+        <v>0.01793067212370216</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1403294486249445</v>
+        <v>0.001693840235662155</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3108,10 +3108,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.02348638675733521</v>
+        <v>0.01798833605084721</v>
       </c>
       <c r="B117" t="n">
-        <v>0.135839995366554</v>
+        <v>0.00168121774511794</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.02650094498980331</v>
+        <v>0.01808629696923733</v>
       </c>
       <c r="B118" t="n">
-        <v>0.131775529963108</v>
+        <v>0.001668595254573724</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.02951550322227141</v>
+        <v>0.01822390505219487</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1281764877775898</v>
+        <v>0.001655972764029509</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.03253006145473952</v>
+        <v>0.018400270806543</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1250830504385281</v>
+        <v>0.001643350273485294</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.03554461968720761</v>
+        <v>0.01861429260722951</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1225335168885811</v>
+        <v>0.00163072778294108</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.03855917791967571</v>
+        <v>0.01886468886283935</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1205623978744164</v>
+        <v>0.001618105292396864</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.0415737361521438</v>
+        <v>0.01915003278395747</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1191983916311041</v>
+        <v>0.001605482801852649</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.04458829438461191</v>
+        <v>0.01946878780181993</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1184624713557974</v>
+        <v>0.001592860311308434</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.04760285261708001</v>
+        <v>0.01981934192723548</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1183663526432755</v>
+        <v>0.001580237820764219</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3315,10 +3315,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.05061741084954811</v>
+        <v>0.02020003969045089</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1189115869984481</v>
+        <v>0.001567615330220004</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.0536319690820162</v>
+        <v>0.0206092106999187</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1200894390567913</v>
+        <v>0.001554992839675789</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3361,10 +3361,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.01118479304722212</v>
+        <v>0.01792372083686191</v>
       </c>
       <c r="B128" t="n">
-        <v>0.155994955832078</v>
+        <v>0.001691017032258673</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.01419935127969023</v>
+        <v>0.01787677474879154</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1505156020611021</v>
+        <v>0.001678394541714458</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.01721390951215833</v>
+        <v>0.01787067584930797</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1453533709572923</v>
+        <v>0.001665772051170243</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.02022846774462643</v>
+        <v>0.01790546587815528</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1405432111471362</v>
+        <v>0.001653149560626028</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.02324302597709452</v>
+        <v>0.01798090749732232</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1361224511846479</v>
+        <v>0.001640527070081813</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.02625758420956262</v>
+        <v>0.01809649230241807</v>
       </c>
       <c r="B133" t="n">
-        <v>0.132130182015894</v>
+        <v>0.001627904579537598</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.02927214244203072</v>
+        <v>0.01825145764004689</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1286063141865818</v>
+        <v>0.001615282088993383</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.03228670067449881</v>
+        <v>0.01844481096222217</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1255902817252608</v>
+        <v>0.001602659598449168</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.03530125890696692</v>
+        <v>0.01867535996944989</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1231194113252295</v>
+        <v>0.001590037107904953</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.03831581713943501</v>
+        <v>0.01894174653129133</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1212270423312382</v>
+        <v>0.001577414617360738</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.04133037537190312</v>
+        <v>0.01924248233554023</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1199405598859563</v>
+        <v>0.001564792126816522</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3614,10 +3614,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.04434493360437122</v>
+        <v>0.01957598437683796</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1192795698567093</v>
+        <v>0.001552169636272308</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.04735949183683932</v>
+        <v>0.01994060869987588</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1192544734201388</v>
+        <v>0.001539547145728093</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.05037405006930742</v>
+        <v>0.02033468119818116</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1198656699906011</v>
+        <v>0.001526924655183878</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.01094143226698143</v>
+        <v>0.01791054623957222</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1561848953053167</v>
+        <v>0.001650326357222547</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.01395599049944954</v>
+        <v>0.01788136092203576</v>
       </c>
       <c r="B143" t="n">
-        <v>0.150768096981625</v>
+        <v>0.001637703866678332</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.01697054873191763</v>
+        <v>0.0178930473469193</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1456724146139438</v>
+        <v>0.001625081376134117</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.01998510696438573</v>
+        <v>0.01794552566532447</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1409326841350893</v>
+        <v>0.001612458885589902</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.02299966519685383</v>
+        <v>0.01803843985940242</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1365859667083448</v>
+        <v>0.001599836395045686</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3798,10 +3798,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.02601422342932192</v>
+        <v>0.01817116966043937</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1326708970040278</v>
+        <v>0.001587213904501472</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3821,10 +3821,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.02902878166179003</v>
+        <v>0.0183428507655272</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1292267127498093</v>
+        <v>0.001574591413957256</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.03204333989425814</v>
+        <v>0.01855240185784758</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1262919452319038</v>
+        <v>0.001561968923413041</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3867,10 +3867,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.03505789812672624</v>
+        <v>0.01879855654816259</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1239027979460623</v>
+        <v>0.001549346432868826</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.03807245635919434</v>
+        <v>0.01907989819167288</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1220913060513948</v>
+        <v>0.001536723942324611</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.04108701459166243</v>
+        <v>0.01939489558686699</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1208834416033729</v>
+        <v>0.001524101451780396</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3936,10 +3936,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.04410157282413053</v>
+        <v>0.01974193779133849</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1202973884192207</v>
+        <v>0.001511478961236181</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.04711613105659864</v>
+        <v>0.02011936663514585</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1203422312954256</v>
+        <v>0.001498856470691966</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.01069807148674074</v>
+        <v>0.01796260120770136</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1565330764018209</v>
+        <v>0.001609635682186421</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.01371262971920884</v>
+        <v>0.0179512266715717</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1511842547387462</v>
+        <v>0.001597013191642205</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.01672718795167694</v>
+        <v>0.01798056475731825</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1461604923365751</v>
+        <v>0.00158439070109799</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.01974174618414504</v>
+        <v>0.0180504169503316</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1414964166517937</v>
+        <v>0.001571768210553775</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.02275630441661314</v>
+        <v>0.01816031575386995</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1372287072612509</v>
+        <v>0.00155914572000956</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.02577086264908124</v>
+        <v>0.01830954007042316</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1333954123422475</v>
+        <v>0.001546523229465345</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.02878542088154934</v>
+        <v>0.01849713815732965</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1300349558287712</v>
+        <v>0.00153390073892113</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.03179997911401744</v>
+        <v>0.01872195650948332</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1271848230210303</v>
+        <v>0.001521278248376915</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.03481453734648554</v>
+        <v>0.01898267273555979</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1248799601315567</v>
+        <v>0.0015086557578327</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.03782909557895364</v>
+        <v>0.01927783042612628</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1231509863707785</v>
+        <v>0.001496033267288484</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.04084365381142174</v>
+        <v>0.01960587414022468</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1220223840604675</v>
+        <v>0.00148341077674427</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4235,10 +4235,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.04385821204388985</v>
+        <v>0.01996518291368543</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1215108832392099</v>
+        <v>0.001470788286200055</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.01045471070650005</v>
+        <v>0.01807932231249107</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1570384465788829</v>
+        <v>0.001568945007150294</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4281,10 +4281,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.01346926893896815</v>
+        <v>0.01808561547720038</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1517627289691521</v>
+        <v>0.001556322516606079</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4304,10 +4304,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.01648382717143626</v>
+        <v>0.01813228480390978</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1468159183143575</v>
+        <v>0.001543700026061864</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4327,10 +4327,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.01949838540390434</v>
+        <v>0.01821902001595533</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1422323366990782</v>
+        <v>0.001531077535517649</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.02251294363637245</v>
+        <v>0.01834525283511239</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1380481694965199</v>
+        <v>0.001518455044973433</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4373,10 +4373,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.02552750186884055</v>
+        <v>0.0185101752000718</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1343007534076704</v>
+        <v>0.001505832554429219</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.02854206010130865</v>
+        <v>0.01871276418387306</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1310275673149128</v>
+        <v>0.001493210063885004</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.03155661833377676</v>
+        <v>0.01895181189163365</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1282649219121432</v>
+        <v>0.001480587573340788</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4442,10 +4442,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.03457117656624485</v>
+        <v>0.0192259584328383</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1260463912845602</v>
+        <v>0.001467965082796573</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.03758573479871295</v>
+        <v>0.0195337260771549</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1244010895638008</v>
+        <v>0.001455342592252358</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.04060029303118104</v>
+        <v>0.01987355288729601</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1233519565289875</v>
+        <v>0.001442720101708143</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.01021134992625936</v>
+        <v>0.01825946948834832</v>
       </c>
       <c r="B178" t="n">
-        <v>0.157699494640293</v>
+        <v>0.001528254332114167</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.01322590815872746</v>
+        <v>0.01828310457633264</v>
       </c>
       <c r="B179" t="n">
-        <v>0.152501672571888</v>
+        <v>0.001515631841569952</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.01624046639119556</v>
+        <v>0.01834661475621711</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1476364637571321</v>
+        <v>0.001503009351025737</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.01925502462366366</v>
+        <v>0.0184495882389745</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1431377884776298</v>
+        <v>0.001490386860481522</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4603,10 +4603,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.02226958285613176</v>
+        <v>0.01859136930064874</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1390412288347974</v>
+        <v>0.001477764369937307</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4626,10 +4626,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.02528414108859986</v>
+        <v>0.01877107860164775</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1353832925718028</v>
+        <v>0.001465141879393092</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.02829869932106796</v>
+        <v>0.01898763925231641</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1322003943463949</v>
+        <v>0.001452519388848877</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.03131325755353605</v>
+        <v>0.01923980691154959</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1295275584158459</v>
+        <v>0.001439896898304662</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.03432781578600415</v>
+        <v>0.01952620210696517</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1273968927370935</v>
+        <v>0.001427274407760447</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.03734237401847225</v>
+        <v>0.01984534304468244</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1258359405536856</v>
+        <v>0.001414651917216232</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4741,10 +4741,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.009967989146018664</v>
+        <v>0.01850119007788072</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1585142729393909</v>
+        <v>0.001487563657078041</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.01298254737848677</v>
+        <v>0.01854167781766376</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1533987665533434</v>
+        <v>0.001474941166533826</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.01599710561095487</v>
+        <v>0.01862139284266759</v>
       </c>
       <c r="B190" t="n">
-        <v>0.148619393757136</v>
+        <v>0.00146231867598961</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4810,10 +4810,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.01901166384342296</v>
+        <v>0.0187398345675354</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1442095786952386</v>
+        <v>0.001449696185445395</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.02202622207589107</v>
+        <v>0.01889627479020594</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1402041965857152</v>
+        <v>0.00143707369490118</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4856,10 +4856,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.02504078030835916</v>
+        <v>0.01908977934356723</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1366388182732184</v>
+        <v>0.001424451204356965</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4879,10 +4879,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.02805533854082727</v>
+        <v>0.01931923453286736</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1335486890389623</v>
+        <v>0.00141182871381275</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4902,10 +4902,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.03106989677329538</v>
+        <v>0.01958337671589144</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1309674531897805</v>
+        <v>0.001399206223268535</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.03408445500576347</v>
+        <v>0.01988082335739237</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1289256801885386</v>
+        <v>0.00138658373272432</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4948,10 +4948,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.009724628365777983</v>
+        <v>0.01880210946103613</v>
       </c>
       <c r="B197" t="n">
-        <v>0.159480425291032</v>
+        <v>0.001446872982041914</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.01273918659824609</v>
+        <v>0.01885882279528434</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1544512551996769</v>
+        <v>0.001434250491497699</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4994,10 +4994,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.01575374483071419</v>
+        <v>0.01895399027576578</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1497615110119122</v>
+        <v>0.001421628000953484</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.01876830306318228</v>
+        <v>0.01908703671695651</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1454440301093672</v>
+        <v>0.001409005510409269</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.02178286129565038</v>
+        <v>0.01925717702587283</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1415328844276341</v>
+        <v>0.001396383019865054</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5063,10 +5063,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.02479741952811849</v>
+        <v>0.01946343845490558</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1380626112328231</v>
+        <v>0.001383760529320839</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.02781197776058658</v>
+        <v>0.01970468672881469</v>
       </c>
       <c r="B203" t="n">
-        <v>0.1350671967300475</v>
+        <v>0.001371138038776624</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.03082653599305467</v>
+        <v>0.0199796545211445</v>
       </c>
       <c r="B204" t="n">
-        <v>0.1325788309296364</v>
+        <v>0.001358515548232408</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -5132,10 +5132,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.009481267585537294</v>
+        <v>0.01915943850055787</v>
       </c>
       <c r="B205" t="n">
-        <v>0.1605952196870068</v>
+        <v>0.001406182307005788</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5155,10 +5155,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.0124958258180054</v>
+        <v>0.01923164204478627</v>
       </c>
       <c r="B206" t="n">
-        <v>0.1556559863777462</v>
+        <v>0.001393559816461572</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5178,10 +5178,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.0155103840504735</v>
+        <v>0.01934142448041659</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1510592048509733</v>
+        <v>0.001380937325917357</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.01852494228294159</v>
+        <v>0.01948815073923795</v>
       </c>
       <c r="B208" t="n">
-        <v>0.1468370403244891</v>
+        <v>0.001368314835373142</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5224,10 +5224,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.02153950051540969</v>
+        <v>0.01967099414492309</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1430226737911546</v>
+        <v>0.001355692344828927</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -5247,10 +5247,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.02455405874787779</v>
+        <v>0.01988895862469102</v>
       </c>
       <c r="B210" t="n">
-        <v>0.1396495248525912</v>
+        <v>0.001343069854284712</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.02756861698034588</v>
+        <v>0.02014090397202866</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1367502472787747</v>
+        <v>0.001330447363740497</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5293,10 +5293,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.009237906805296604</v>
+        <v>0.01957008749887178</v>
       </c>
       <c r="B212" t="n">
-        <v>0.1618555848014899</v>
+        <v>0.001365491631969661</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.0122524650377647</v>
+        <v>0.01965696802252598</v>
       </c>
       <c r="B213" t="n">
-        <v>0.1570094556627316</v>
+        <v>0.001352869141425446</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5339,10 +5339,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.0152670232702328</v>
+        <v>0.01978047350480914</v>
       </c>
       <c r="B214" t="n">
-        <v>0.152508503925684</v>
+        <v>0.001340246650881231</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -5362,10 +5362,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.0182815815027009</v>
+        <v>0.01993992340559608</v>
       </c>
       <c r="B215" t="n">
-        <v>0.1483841438222478</v>
+        <v>0.001327624160337016</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5385,10 +5385,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.021296139735169</v>
+        <v>0.02013446378422718</v>
       </c>
       <c r="B216" t="n">
-        <v>0.1446685877173783</v>
+        <v>0.001315001669792801</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5408,10 +5408,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.02431069796763711</v>
+        <v>0.02036308894658197</v>
       </c>
       <c r="B217" t="n">
-        <v>0.1413940669635332</v>
+        <v>0.001302379179248585</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -5431,10 +5431,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.008994546025055917</v>
+        <v>0.0200307774026696</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1632581492188105</v>
+        <v>0.001324800956933534</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -5454,10 +5454,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.01200910425752401</v>
+        <v>0.02013147300928052</v>
       </c>
       <c r="B219" t="n">
-        <v>0.1585078529587423</v>
+        <v>0.001312178466389319</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5477,10 +5477,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.01502366248999211</v>
+        <v>0.02026778332236204</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1541051309298208</v>
+        <v>0.001299555975845105</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.01803822072246021</v>
+        <v>0.02043899579704881</v>
       </c>
       <c r="B221" t="n">
-        <v>0.150080575272992</v>
+        <v>0.001286933485300889</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.02105277895492831</v>
+        <v>0.02064424207114605</v>
       </c>
       <c r="B222" t="n">
-        <v>0.1464653629214612</v>
+        <v>0.001274310994756674</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.008751185244815225</v>
+        <v>0.02053814109363511</v>
       </c>
       <c r="B223" t="n">
-        <v>0.1647992823135929</v>
+        <v>0.001284110281897407</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.01176574347728332</v>
+        <v>0.02065176740119679</v>
       </c>
       <c r="B224" t="n">
-        <v>0.160147110312606</v>
+        <v>0.001271487791353192</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -5592,10 +5592,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.01478030170975143</v>
+        <v>0.02079996219022864</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1558445578066453</v>
+        <v>0.001258865300808978</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -5615,10 +5615,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.01779485994221952</v>
+        <v>0.02098199300704017</v>
       </c>
       <c r="B226" t="n">
-        <v>0.1519213323417344</v>
+        <v>0.001246242810264762</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -5638,10 +5638,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.008507824464574536</v>
+        <v>0.02108881014646844</v>
       </c>
       <c r="B227" t="n">
-        <v>0.1664751357578782</v>
+        <v>0.001243419606861281</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -5661,10 +5661,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.01152238269704263</v>
+        <v>0.02121448245062418</v>
       </c>
       <c r="B228" t="n">
-        <v>0.1619229497111838</v>
+        <v>0.001230797116317066</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.01453694092951073</v>
+        <v>0.02137365881201971</v>
       </c>
       <c r="B229" t="n">
-        <v>0.1577220600512345</v>
+        <v>0.001218174625772851</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5707,10 +5707,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.008264463684333834</v>
+        <v>0.02167948488295976</v>
       </c>
       <c r="B230" t="n">
-        <v>0.1682816847132731</v>
+        <v>0.001202728931825154</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.01127902191680193</v>
+        <v>0.02181633589967645</v>
       </c>
       <c r="B231" t="n">
-        <v>0.1638309297863743</v>
+        <v>0.001190106441280939</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -5753,10 +5753,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.008021102904093151</v>
+        <v>0.02230698755484779</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1702147678789233</v>
+        <v>0.001162038256789028</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5796,96 +5796,101 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>return</t>
+          <t>risks</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>returns</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MSCI Emerging Markets</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CAC40</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Hang Seng</t>
+          <t>Étiquette</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04857629573804278</v>
+        <v>0.01975018620879425</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1168859339935771</v>
+        <v>0.001975851757511559</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>30%</t>
+          <t>S&amp;P 500 : 100%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.008021102904093151</v>
+        <v>0.02335188591805903</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1702147678789233</v>
+        <v>0.001723401946627258</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0%</t>
+          <t>CAC40 : 100%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.07317948315826894</v>
+        <v>0.02230698755484779</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1351857067500024</v>
+        <v>0.001162038256789028</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0%</t>
+          <t>Hang Seng : 100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.01787067584930797</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.001665772051170243</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hang Seng : 35%
+CAC40 : 10%
+S&amp;P 500 : 55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.01975018620879425</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.001975851757511559</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hang Seng : 0%
+CAC40 : 0%
+S&amp;P 500 : 100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.01917613482099028</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.001922538591931218</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hang Seng : 5%
+CAC40 : 5%
+S&amp;P 500 : 90%</t>
         </is>
       </c>
     </row>
@@ -6087,9 +6092,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E0AEBB-C9ED-4A4F-A9DC-63FD9EA94367}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC78292-44E7-49C1-AD1B-BAF8BBB0CD1E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29610540-4AED-4D96-ADDE-81B6BC78D1CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C88472B-8BFD-4101-8CF5-5D5DD5BEAFE1}"/>
 </file>